--- a/01_data/Irish_census_1841-1851.xlsx
+++ b/01_data/Irish_census_1841-1851.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193302E-6B15-5744-BBB7-84008CB97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA9E4EE-6EF5-4647-BE82-21B8D269291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="6780" windowWidth="27640" windowHeight="16940" xr2:uid="{75D13E89-46F3-2640-97D2-EEC7B07E8843}"/>
+    <workbookView xWindow="9980" yWindow="1840" windowWidth="29500" windowHeight="16940" xr2:uid="{75D13E89-46F3-2640-97D2-EEC7B07E8843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,27 +35,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>PROVINCE</t>
-  </si>
-  <si>
-    <t>Leinster</t>
-  </si>
-  <si>
-    <t>Munster</t>
-  </si>
-  <si>
-    <t>Ulster</t>
-  </si>
-  <si>
-    <t>Connacht</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>CARLOW</t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
+    <t>CORK</t>
+  </si>
+  <si>
+    <t>GALWAY</t>
+  </si>
+  <si>
+    <t>OFFALY</t>
   </si>
   <si>
     <t>POP1841</t>
   </si>
   <si>
     <t>POP1851</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ANTRIM</t>
+  </si>
+  <si>
+    <t>ARMAGH</t>
+  </si>
+  <si>
+    <t>CAVAN</t>
+  </si>
+  <si>
+    <t>CLARE</t>
+  </si>
+  <si>
+    <t>DERRY</t>
+  </si>
+  <si>
+    <t>DONEGAL</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>FERMANAGH</t>
+  </si>
+  <si>
+    <t>KERRY</t>
+  </si>
+  <si>
+    <t>KILDARE</t>
+  </si>
+  <si>
+    <t>KILKENNY</t>
+  </si>
+  <si>
+    <t>LAOIS</t>
+  </si>
+  <si>
+    <t>LEITRIM</t>
+  </si>
+  <si>
+    <t>LONGFORD</t>
+  </si>
+  <si>
+    <t>LOUTH</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>MEATH</t>
+  </si>
+  <si>
+    <t>MONAGHAN</t>
+  </si>
+  <si>
+    <t>ROSCOMMON</t>
+  </si>
+  <si>
+    <t>SLIGO</t>
+  </si>
+  <si>
+    <t>TIPPERARY NORTH</t>
+  </si>
+  <si>
+    <t>TIPPERARY SOUTH</t>
+  </si>
+  <si>
+    <t>TYRONE</t>
+  </si>
+  <si>
+    <t>WATERFORD</t>
+  </si>
+  <si>
+    <t>WESTMEATH</t>
+  </si>
+  <si>
+    <t>WEXFORD</t>
+  </si>
+  <si>
+    <t>WICKLOW</t>
+  </si>
+  <si>
+    <t>LIMERICK</t>
   </si>
 </sst>
 </file>
@@ -407,17 +494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E724B-33D5-5149-8897-DA476453FA27}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -428,46 +515,365 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1410973</v>
+        <v>276188</v>
       </c>
       <c r="C2">
-        <v>1191634</v>
+        <v>251383</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1973731</v>
+        <v>232393</v>
       </c>
       <c r="C3">
-        <v>1466099</v>
+        <v>196084</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>2395161</v>
+        <v>86228</v>
       </c>
       <c r="C4">
-        <v>1749707</v>
+        <v>68078</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>243158</v>
+      </c>
+      <c r="C5">
+        <v>174064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>286394</v>
+      </c>
+      <c r="C6">
+        <v>212440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>773398</v>
+      </c>
+      <c r="C7">
+        <v>563576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>222174</v>
+      </c>
+      <c r="C8">
+        <v>192022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>296448</v>
+      </c>
+      <c r="C9">
+        <v>16847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>361446</v>
+      </c>
+      <c r="C10">
+        <v>320817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>232726</v>
+      </c>
+      <c r="C11">
+        <v>258369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>156481</v>
+      </c>
+      <c r="C12">
+        <v>116047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2886373</v>
-      </c>
-      <c r="C5">
-        <v>926269</v>
+      <c r="B13">
+        <v>422923</v>
+      </c>
+      <c r="C13">
+        <v>297897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>293880</v>
+      </c>
+      <c r="C14">
+        <v>238254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>114488</v>
+      </c>
+      <c r="C15">
+        <v>95723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>183349</v>
+      </c>
+      <c r="C16">
+        <v>138773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>146857</v>
+      </c>
+      <c r="C17">
+        <v>112076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>155297</v>
+      </c>
+      <c r="C18">
+        <v>111897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>281638</v>
+      </c>
+      <c r="C19">
+        <v>208684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>115491</v>
+      </c>
+      <c r="C20">
+        <v>82348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>111979</v>
+      </c>
+      <c r="C21">
+        <v>90815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>338887</v>
+      </c>
+      <c r="C22">
+        <v>274499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>183828</v>
+      </c>
+      <c r="C23">
+        <v>140748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>200442</v>
+      </c>
+      <c r="C24">
+        <v>141823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>153930</v>
+      </c>
+      <c r="C25">
+        <v>111664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>253591</v>
+      </c>
+      <c r="C26">
+        <v>173436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>180886</v>
+      </c>
+      <c r="C27">
+        <v>128515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>435553</v>
+      </c>
+      <c r="C28">
+        <v>331567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>435553</v>
+      </c>
+      <c r="C29">
+        <v>331567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>312956</v>
+      </c>
+      <c r="C30">
+        <v>255661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>172871</v>
+      </c>
+      <c r="C31">
+        <v>138733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>141300</v>
+      </c>
+      <c r="C32">
+        <v>111407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>202033</v>
+      </c>
+      <c r="C33">
+        <v>180158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>126143</v>
+      </c>
+      <c r="C34">
+        <v>98979</v>
       </c>
     </row>
   </sheetData>

--- a/01_data/Irish_census_1841-1851.xlsx
+++ b/01_data/Irish_census_1841-1851.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA9E4EE-6EF5-4647-BE82-21B8D269291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5632108-16A0-914D-AF43-7F0CA1B619E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1840" windowWidth="29500" windowHeight="16940" xr2:uid="{75D13E89-46F3-2640-97D2-EEC7B07E8843}"/>
+    <workbookView xWindow="42520" yWindow="12520" windowWidth="29500" windowHeight="16940" xr2:uid="{75D13E89-46F3-2640-97D2-EEC7B07E8843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
